--- a/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
+++ b/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\SLR_Ranking_vs_NEMScr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB615CA1-6F5C-47D4-BBD1-5313455D8AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08F9C6-191C-4961-A6EC-B3055F046665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>

--- a/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
+++ b/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\SLR_Ranking_vs_NEMScr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\SLR_Ranking_vs_NEMScr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08F9C6-191C-4961-A6EC-B3055F046665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4FAFE-4798-4706-B2C7-07BFCFD0BF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
+++ b/results/ML/SLR_Ranking_vs_NEMScr/SLR_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\SLR_Ranking_vs_NEMScr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\SLR_Ranking_vs_NEMScr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B4FAFE-4798-4706-B2C7-07BFCFD0BF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4B2CD-3FB1-45C3-94CB-EB750B927A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
